--- a/Sprint-Backlog.xlsx
+++ b/Sprint-Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\Plant.ai\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\Plant.ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
   <si>
     <t>RA</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Tamanho</t>
   </si>
   <si>
-    <t>Ordem de execução</t>
-  </si>
-  <si>
     <t>Sprint</t>
   </si>
   <si>
@@ -210,6 +207,18 @@
   </si>
   <si>
     <t>Armazenar os dados capturados do Arduino no banco de dados</t>
+  </si>
+  <si>
+    <t>3º Modulo</t>
+  </si>
+  <si>
+    <t>1º Modulo</t>
+  </si>
+  <si>
+    <t>2º Modulo</t>
+  </si>
+  <si>
+    <t>Ponto Feitos:</t>
   </si>
 </sst>
 </file>
@@ -219,7 +228,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +262,20 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -263,7 +286,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -368,21 +391,6 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -398,45 +406,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -444,11 +413,170 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -471,38 +599,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -510,14 +622,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,21 +955,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="96.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="7"/>
@@ -823,44 +980,40 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="25"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="19"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="26"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C4" s="17"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1192084</v>
       </c>
@@ -868,7 +1021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1192099</v>
       </c>
@@ -876,16 +1029,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1192091</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1192027</v>
       </c>
@@ -893,7 +1045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1192079</v>
       </c>
@@ -901,7 +1053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>1192107</v>
       </c>
@@ -909,429 +1061,458 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="37">
+        <f>SUM(D12:D19)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="12">
+      <c r="D14" s="10">
         <v>21</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13" t="s">
+      <c r="E14" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="B15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="10">
+        <v>21</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="C16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="10">
         <v>21</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="E16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="12">
+      <c r="B17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="10">
+        <v>3</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="10">
+        <v>13</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="27">
         <v>21</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="12">
+      <c r="E19" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="30"/>
+      <c r="B22" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="37">
+        <f>SUM(D23:D30)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="10">
+        <v>13</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="10">
+        <v>5</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="10">
+        <v>5</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="10">
+        <v>5</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="10">
+        <v>5</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="10">
         <v>3</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="12">
+      <c r="E28" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="10">
+        <v>3</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="27">
+        <v>21</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="30"/>
+      <c r="B34" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="37">
+        <f>SUM(D34:D41)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="10">
+        <v>21</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="10">
         <v>13</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="12">
+      <c r="E36" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="10">
+        <v>8</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="10">
         <v>21</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="12">
+      <c r="E38" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="10">
+        <v>21</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="10">
+        <v>8</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="10">
         <v>13</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="12">
-        <v>5</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="12">
-        <v>5</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="12">
-        <v>5</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="12">
-        <v>5</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="12">
-        <v>3</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="12">
-        <v>3</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="12">
-        <v>21</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="12">
-        <v>21</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="12">
-        <v>13</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="12">
+      <c r="E41" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="14">
         <v>8</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="12">
-        <v>21</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="12">
-        <v>21</v>
-      </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="12">
-        <v>8</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="12">
-        <v>13</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="16">
-        <v>8</v>
-      </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="14" t="s">
-        <v>18</v>
+      <c r="E42" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
